--- a/Fuzzing/SQL injection/SQLInjection_Report.xlsx
+++ b/Fuzzing/SQL injection/SQLInjection_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/PTIT document/Ki 7 D17/MMHNC/Fuzzing/hackazon.webscantest.com/hackazon_local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF998A8-F0F5-3B4D-8EC8-968DE3B107BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C8F48B-9584-6648-9A92-13376AAFFB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4177,12 +4177,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4224,7 +4239,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4449,8 +4464,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="A605" sqref="A605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32180,7 +32195,7 @@
     </row>
     <row r="597" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B597" s="11" t="s">
         <v>22</v>
@@ -32274,7 +32289,7 @@
     </row>
     <row r="599" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B599" s="11" t="s">
         <v>22</v>
@@ -32416,7 +32431,7 @@
     </row>
     <row r="602" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B602" s="11" t="s">
         <v>22</v>
@@ -59933,8 +59948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA472752-C53B-D042-B0A8-81C4741FDA4D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
